--- a/PCB/PCBv1.4/BOM.xlsx
+++ b/PCB/PCBv1.4/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Veridian-Heliograph\PCB\PCBv1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Veridian-Heliograph\PCB\PCBv1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB25BC7-ECDF-4510-8AFA-877E006B1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55FF7E7-17ED-4FC4-BDF0-6D155FA44483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>Reference</t>
   </si>
@@ -57,39 +57,15 @@
     <t>Antenna_Shield</t>
   </si>
   <si>
-    <t xml:space="preserve">C7 C12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14 C17 </t>
-  </si>
-  <si>
-    <t>10F</t>
-  </si>
-  <si>
-    <t>Veridian-Library-KiCad:SCCT20E106SRB</t>
-  </si>
-  <si>
-    <t>SCCT20E106SRB</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">C5 C6 C15 C16 C18 C19 C23 C28 </t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">D1 D3 </t>
-  </si>
-  <si>
     <t>Schottky</t>
   </si>
   <si>
@@ -150,45 +126,12 @@
     <t>Keystone Electronics</t>
   </si>
   <si>
-    <t xml:space="preserve">L2 </t>
-  </si>
-  <si>
-    <t>0.47uH</t>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0806_2016Metric</t>
-  </si>
-  <si>
-    <t>DFE201612E</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">R3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4 </t>
-  </si>
-  <si>
-    <t>91k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROV3 </t>
-  </si>
-  <si>
-    <t>4.32M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROV4 </t>
-  </si>
-  <si>
-    <t>8.66M</t>
-  </si>
-  <si>
     <t xml:space="preserve">U2 </t>
   </si>
   <si>
@@ -210,27 +153,12 @@
     <t>Package_LGA:LGA-16_3x3mm_P0.5mm_LayoutBorder3x5y</t>
   </si>
   <si>
-    <t xml:space="preserve">U7 </t>
-  </si>
-  <si>
-    <t>TPS63802</t>
-  </si>
-  <si>
-    <t>Margo_Lib:VREG_TPS63802DLAR</t>
-  </si>
-  <si>
     <t>MANUFACTURER Part</t>
   </si>
   <si>
     <t>Digikey Part</t>
   </si>
   <si>
-    <t>KYOCERA AVX</t>
-  </si>
-  <si>
-    <t>478-11288-ND</t>
-  </si>
-  <si>
     <t>B0530WSRRGCT-ND</t>
   </si>
   <si>
@@ -255,9 +183,6 @@
     <t>Murata Electronics</t>
   </si>
   <si>
-    <t>490-16593-1-ND</t>
-  </si>
-  <si>
     <t>672-MAX-M10M-00BCT-ND</t>
   </si>
   <si>
@@ -267,45 +192,18 @@
     <t>MAX-M10M-00B</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>LIS3DHTR</t>
   </si>
   <si>
     <t>497-10613-1-ND</t>
   </si>
   <si>
-    <t>296-TPS63802DLARCT-ND</t>
-  </si>
-  <si>
-    <t>TPS63802DLAR</t>
-  </si>
-  <si>
-    <t>LS013B7DH03</t>
-  </si>
-  <si>
-    <t>Sharp Microelectronics</t>
-  </si>
-  <si>
-    <t>425-2903-ND</t>
-  </si>
-  <si>
     <t>DISP1</t>
   </si>
   <si>
     <t>SOLAR</t>
   </si>
   <si>
-    <t>SM141K09L</t>
-  </si>
-  <si>
-    <t>ANYSOLAR Ltd</t>
-  </si>
-  <si>
-    <t>SM141K09L-ND</t>
-  </si>
-  <si>
     <t>PCB</t>
   </si>
   <si>
@@ -315,12 +213,6 @@
     <t>490-6408-1-ND</t>
   </si>
   <si>
-    <t>GRM1885C1H103JA01J</t>
-  </si>
-  <si>
-    <t>490-GRM1885C1H103JA01JCT-ND</t>
-  </si>
-  <si>
     <t>RC0603FR-071ML</t>
   </si>
   <si>
@@ -330,30 +222,6 @@
     <t>311-1.00MHRCT-ND</t>
   </si>
   <si>
-    <t>RC0603JR-07390RL</t>
-  </si>
-  <si>
-    <t>311-390GRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-0791KL</t>
-  </si>
-  <si>
-    <t>311-91.0KHRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-074M3L</t>
-  </si>
-  <si>
-    <t>13-RC0603FR-074M3LCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-078M66L</t>
-  </si>
-  <si>
-    <t>RC0603FR-078M66L-ND</t>
-  </si>
-  <si>
     <t>Epoxy</t>
   </si>
   <si>
@@ -384,9 +252,6 @@
     <t>Cost CAD @100</t>
   </si>
   <si>
-    <t xml:space="preserve">R2 R6 R12 R13 R14 R15 </t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -396,24 +261,12 @@
     <t>11pF</t>
   </si>
   <si>
-    <t>C8, C9, C11, C20, C21, C25, C26</t>
-  </si>
-  <si>
-    <t>47uF</t>
-  </si>
-  <si>
     <t>FPC</t>
   </si>
   <si>
     <t>TAG</t>
   </si>
   <si>
-    <t>432k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 R5 </t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -435,24 +288,6 @@
     <t>728-1074-1-ND</t>
   </si>
   <si>
-    <t>STM32L011G3U6</t>
-  </si>
-  <si>
-    <t>497-19187-ND</t>
-  </si>
-  <si>
-    <t>311-432KHRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-07432KL</t>
-  </si>
-  <si>
-    <t>GRT21BR60J476ME13L</t>
-  </si>
-  <si>
-    <t>490-12371-1-ND</t>
-  </si>
-  <si>
     <t>490-1404-1-ND</t>
   </si>
   <si>
@@ -460,6 +295,93 @@
   </si>
   <si>
     <t>STM32L011G4Ux</t>
+  </si>
+  <si>
+    <t>C2, C3, C6, C7, C9, C15, C16, C18, C20-C22, C25, C26</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GRM21BR60J226ME39K</t>
+  </si>
+  <si>
+    <t>490-6471-1-ND</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>25F</t>
+  </si>
+  <si>
+    <t>Tecate Group</t>
+  </si>
+  <si>
+    <t>TPLC-3R8/25MR8X20</t>
+  </si>
+  <si>
+    <t>2085-TPLC-3R8/25MR8X20-ND</t>
+  </si>
+  <si>
+    <t>D1 D3-D6</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>47uH</t>
+  </si>
+  <si>
+    <t>NR4018T470M</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>587-1670-1-ND</t>
+  </si>
+  <si>
+    <t>R1 R7</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>311-120GRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603JR-07120RL</t>
+  </si>
+  <si>
+    <t>311-2.2HRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-072R2L</t>
+  </si>
+  <si>
+    <t>STM32L011G4U6</t>
+  </si>
+  <si>
+    <t>497-17479-ND</t>
+  </si>
+  <si>
+    <t>ER-EPD0154-2R</t>
+  </si>
+  <si>
+    <t>Buy Display</t>
+  </si>
+  <si>
+    <t>Margo</t>
+  </si>
+  <si>
+    <t>4V 70x30mm</t>
   </si>
 </sst>
 </file>
@@ -548,7 +470,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -558,6 +480,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -840,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,16 +793,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,43 +816,43 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3">
         <v>1.6272</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I31" si="0">H2*B2</f>
+        <f t="shared" ref="I2:I27" si="0">H2*B2</f>
         <v>1.6272</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="H3" s="3">
         <v>0.06</v>
@@ -941,233 +864,219 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="H4" s="3">
-        <v>5.3699999999999998E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="0"/>
-        <v>0.1074</v>
+        <v>0.47320000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H5" s="3">
-        <v>2.9862000000000002</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>5.9724000000000004</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="3">
-        <v>9.4100000000000003E-2</v>
+        <v>91</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.12620000000000001</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>0.75280000000000002</v>
+        <v>0.12620000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="H7" s="3">
-        <v>0.3135</v>
+        <v>2.5457999999999998</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>0.627</v>
+        <v>2.5457999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3">
-        <v>3.8899999999999997E-2</v>
+        <v>0.22270000000000001</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>0.27229999999999999</v>
+        <v>1.1135000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3">
-        <v>0.22270000000000001</v>
+        <v>0.1069</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>0.44540000000000002</v>
+        <v>0.1069</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
       </c>
       <c r="H10" s="3">
-        <v>0.1069</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>0.1069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1175,16 +1084,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="6">
@@ -1194,18 +1103,23 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1213,531 +1127,378 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="3">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>7781</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.5131</v>
+      </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>0.5131</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16">
-        <v>7781</v>
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.5131</v>
+        <v>102</v>
+      </c>
+      <c r="H16">
+        <v>0.37369999999999998</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>0.5131</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>0.37369999999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3">
-        <v>0.31069999999999998</v>
+        <v>1.43E-2</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>0.31069999999999998</v>
+        <v>2.86E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H18" s="3">
         <v>1.43E-2</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>8.5800000000000001E-2</v>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>390</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H19" s="3">
-        <v>1.18E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>1.18E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="H20" s="3">
-        <v>1.43E-2</v>
+        <v>2.931</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="0"/>
-        <v>1.43E-2</v>
+        <v>2.931</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3">
-        <v>1.43E-2</v>
+        <v>12.2097</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>2.86E-2</v>
+        <v>12.2097</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="H22" s="3">
-        <v>1.43E-2</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>1.43E-2</v>
+        <v>2.0329999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
-        <v>50</v>
+      <c r="C23">
+        <v>32.768000000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="H23" s="3">
-        <v>1.43E-2</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="0"/>
-        <v>1.43E-2</v>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" t="s">
-        <v>133</v>
-      </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H24" s="3">
-        <v>2.9128799999999999</v>
+        <v>6</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="0"/>
-        <v>2.9128799999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="H25" s="3">
-        <v>12.2097</v>
+        <v>2</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="0"/>
-        <v>12.2097</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" t="s">
-        <v>79</v>
-      </c>
       <c r="H26" s="3">
-        <v>2.0329999999999999</v>
+        <v>1</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="0"/>
-        <v>2.0329999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
       <c r="H27" s="3">
-        <v>1.9172</v>
+        <v>3</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="0"/>
-        <v>1.9172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>32.768000000000001</v>
-      </c>
-      <c r="D28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="3">
-        <v>5</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="3">
-        <v>4</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
         <v>3</v>
       </c>
-      <c r="I32" s="6">
-        <f>H32*B32</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="4"/>
-      <c r="I34" s="4">
-        <f>SUM(I2:I32)</f>
-        <v>47.442080000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4">
+        <f>SUM(I2:I27)</f>
+        <v>38.6965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H27">
-    <sortCondition ref="A2:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="I2:I32">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="I2:I27">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1749,7 +1510,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" display="https://www.digikey.ca/en/products/detail/osram-opto-semiconductors-inc/LS-R976-NR-1/1227987" xr:uid="{8942F0FB-9A60-41EA-8BA0-EA33C49B86B1}"/>
+    <hyperlink ref="E9" r:id="rId1" display="https://www.digikey.ca/en/products/detail/osram-opto-semiconductors-inc/LS-R976-NR-1/1227987" xr:uid="{8942F0FB-9A60-41EA-8BA0-EA33C49B86B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/PCB/PCBv1.4/BOM.xlsx
+++ b/PCB/PCBv1.4/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Veridian-Heliograph\PCB\PCBv1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Veridian-Heliograph\PCB\PCBv1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55FF7E7-17ED-4FC4-BDF0-6D155FA44483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D43A7-1A20-4103-B898-1079D35FC03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="21705" windowHeight="31680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="163">
   <si>
     <t>Reference</t>
   </si>
@@ -57,15 +57,42 @@
     <t>Antenna_Shield</t>
   </si>
   <si>
+    <t xml:space="preserve">C7 C12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14 C17 </t>
+  </si>
+  <si>
+    <t>10F</t>
+  </si>
+  <si>
+    <t>Veridian-Library-KiCad:SCCT20E106SRB</t>
+  </si>
+  <si>
+    <t>SCCT20E106SRB</t>
+  </si>
+  <si>
     <t>1uF</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
+    <t xml:space="preserve">C5 C6 C15 C16 C18 C19 C23 C28 </t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
+    <t xml:space="preserve">D1 D3 </t>
+  </si>
+  <si>
     <t>Schottky</t>
   </si>
   <si>
@@ -84,6 +111,15 @@
     <t>Diode_SMD:D_0805_2012Metric</t>
   </si>
   <si>
+    <t xml:space="preserve">D4 </t>
+  </si>
+  <si>
+    <t>5.1V</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-523</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1 </t>
   </si>
   <si>
@@ -126,12 +162,54 @@
     <t>Keystone Electronics</t>
   </si>
   <si>
+    <t xml:space="preserve">L2 </t>
+  </si>
+  <si>
+    <t>0.47uH</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0806_2016Metric</t>
+  </si>
+  <si>
+    <t>DFE201612E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3 </t>
+  </si>
+  <si>
+    <t>22uH</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_1008_2520Metric</t>
+  </si>
+  <si>
     <t>1M</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
+    <t xml:space="preserve">R3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4 </t>
+  </si>
+  <si>
+    <t>91k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROV3 </t>
+  </si>
+  <si>
+    <t>4.32M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROV4 </t>
+  </si>
+  <si>
+    <t>8.66M</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2 </t>
   </si>
   <si>
@@ -144,6 +222,15 @@
     <t>STMicroelectronics</t>
   </si>
   <si>
+    <t xml:space="preserve">U5 </t>
+  </si>
+  <si>
+    <t>BQ25505</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:QFN-20-1EP_3.5x3.5mm_P0.5mm_EP2x2mm_ThermalVias</t>
+  </si>
+  <si>
     <t xml:space="preserve">U6 </t>
   </si>
   <si>
@@ -153,12 +240,27 @@
     <t>Package_LGA:LGA-16_3x3mm_P0.5mm_LayoutBorder3x5y</t>
   </si>
   <si>
+    <t xml:space="preserve">U7 </t>
+  </si>
+  <si>
+    <t>TPS63802</t>
+  </si>
+  <si>
+    <t>Margo_Lib:VREG_TPS63802DLAR</t>
+  </si>
+  <si>
     <t>MANUFACTURER Part</t>
   </si>
   <si>
     <t>Digikey Part</t>
   </si>
   <si>
+    <t>KYOCERA AVX</t>
+  </si>
+  <si>
+    <t>478-11288-ND</t>
+  </si>
+  <si>
     <t>B0530WSRRGCT-ND</t>
   </si>
   <si>
@@ -174,6 +276,15 @@
     <t>475-1278-1-ND</t>
   </si>
   <si>
+    <t>BZT52C5V1T-TP</t>
+  </si>
+  <si>
+    <t>Micro Commercial Co</t>
+  </si>
+  <si>
+    <t>BZT52C5V1T-TPMSCT-ND</t>
+  </si>
+  <si>
     <t>DNF</t>
   </si>
   <si>
@@ -183,6 +294,18 @@
     <t>Murata Electronics</t>
   </si>
   <si>
+    <t>490-16593-1-ND</t>
+  </si>
+  <si>
+    <t>CBC3225T220MR</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>587-1626-1-ND</t>
+  </si>
+  <si>
     <t>672-MAX-M10M-00BCT-ND</t>
   </si>
   <si>
@@ -192,18 +315,51 @@
     <t>MAX-M10M-00B</t>
   </si>
   <si>
+    <t>296-37078-1-ND</t>
+  </si>
+  <si>
+    <t>BQ25505RGRR</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
     <t>LIS3DHTR</t>
   </si>
   <si>
     <t>497-10613-1-ND</t>
   </si>
   <si>
+    <t>296-TPS63802DLARCT-ND</t>
+  </si>
+  <si>
+    <t>TPS63802DLAR</t>
+  </si>
+  <si>
+    <t>LS013B7DH03</t>
+  </si>
+  <si>
+    <t>Sharp Microelectronics</t>
+  </si>
+  <si>
+    <t>425-2903-ND</t>
+  </si>
+  <si>
     <t>DISP1</t>
   </si>
   <si>
     <t>SOLAR</t>
   </si>
   <si>
+    <t>SM141K09L</t>
+  </si>
+  <si>
+    <t>ANYSOLAR Ltd</t>
+  </si>
+  <si>
+    <t>SM141K09L-ND</t>
+  </si>
+  <si>
     <t>PCB</t>
   </si>
   <si>
@@ -213,6 +369,18 @@
     <t>490-6408-1-ND</t>
   </si>
   <si>
+    <t>GRM1885C1H103JA01J</t>
+  </si>
+  <si>
+    <t>490-GRM1885C1H103JA01JCT-ND</t>
+  </si>
+  <si>
+    <t>GRM188Z71A475ME15D</t>
+  </si>
+  <si>
+    <t>490-GRM188Z71A475ME15DCT-ND</t>
+  </si>
+  <si>
     <t>RC0603FR-071ML</t>
   </si>
   <si>
@@ -222,6 +390,30 @@
     <t>311-1.00MHRCT-ND</t>
   </si>
   <si>
+    <t>RC0603JR-07390RL</t>
+  </si>
+  <si>
+    <t>311-390GRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0791KL</t>
+  </si>
+  <si>
+    <t>311-91.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-074M3L</t>
+  </si>
+  <si>
+    <t>13-RC0603FR-074M3LCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-078M66L</t>
+  </si>
+  <si>
+    <t>RC0603FR-078M66L-ND</t>
+  </si>
+  <si>
     <t>Epoxy</t>
   </si>
   <si>
@@ -252,6 +444,9 @@
     <t>Cost CAD @100</t>
   </si>
   <si>
+    <t xml:space="preserve">R2 R6 R12 R13 R14 R15 </t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -261,15 +456,33 @@
     <t>11pF</t>
   </si>
   <si>
+    <t>C8, C9, C11, C20, C21, C25, C26</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>C2 C3 C13</t>
+  </si>
+  <si>
     <t>FPC</t>
   </si>
   <si>
     <t>TAG</t>
   </si>
   <si>
+    <t>432k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 R5 </t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
+    <t>STM32L011G3Ux</t>
+  </si>
+  <si>
     <t>Package_DFN_QFN:QFN-28_4x4mm_P0.5mm</t>
   </si>
   <si>
@@ -288,100 +501,28 @@
     <t>728-1074-1-ND</t>
   </si>
   <si>
+    <t>STM32L011G3U6</t>
+  </si>
+  <si>
+    <t>497-19187-ND</t>
+  </si>
+  <si>
+    <t>311-432KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07432KL</t>
+  </si>
+  <si>
+    <t>GRT21BR60J476ME13L</t>
+  </si>
+  <si>
+    <t>490-12371-1-ND</t>
+  </si>
+  <si>
     <t>490-1404-1-ND</t>
   </si>
   <si>
     <t>GRM1885C1H110JA01D</t>
-  </si>
-  <si>
-    <t>STM32L011G4Ux</t>
-  </si>
-  <si>
-    <t>C2, C3, C6, C7, C9, C15, C16, C18, C20-C22, C25, C26</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>GRM21BR60J226ME39K</t>
-  </si>
-  <si>
-    <t>490-6471-1-ND</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>25F</t>
-  </si>
-  <si>
-    <t>Tecate Group</t>
-  </si>
-  <si>
-    <t>TPLC-3R8/25MR8X20</t>
-  </si>
-  <si>
-    <t>2085-TPLC-3R8/25MR8X20-ND</t>
-  </si>
-  <si>
-    <t>D1 D3-D6</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>47uH</t>
-  </si>
-  <si>
-    <t>NR4018T470M</t>
-  </si>
-  <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>587-1670-1-ND</t>
-  </si>
-  <si>
-    <t>R1 R7</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>311-120GRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603JR-07120RL</t>
-  </si>
-  <si>
-    <t>311-2.2HRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-072R2L</t>
-  </si>
-  <si>
-    <t>STM32L011G4U6</t>
-  </si>
-  <si>
-    <t>497-17479-ND</t>
-  </si>
-  <si>
-    <t>ER-EPD0154-2R</t>
-  </si>
-  <si>
-    <t>Buy Display</t>
-  </si>
-  <si>
-    <t>Margo</t>
-  </si>
-  <si>
-    <t>4V 70x30mm</t>
   </si>
 </sst>
 </file>
@@ -391,7 +532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,20 +559,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,17 +597,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -763,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,11 +897,10 @@
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,19 +914,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -816,689 +937,828 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3">
         <v>1.6272</v>
       </c>
-      <c r="I2" s="6">
-        <f t="shared" ref="I2:I27" si="0">H2*B2</f>
-        <v>1.6272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="H3" s="3">
         <v>0.06</v>
       </c>
-      <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.47320000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" s="3">
+        <v>2.9862000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.18279999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.12620000000000001</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.12620000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>94</v>
-      </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H7" s="3">
-        <v>2.5457999999999998</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>2.5457999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.4100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.3135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.22270000000000001</v>
       </c>
-      <c r="I8" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1135000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="3">
         <v>0.1069</v>
       </c>
-      <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>7781</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.5131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.31069999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15">
-        <v>7781</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="3">
-        <v>0.5131</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5131</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16">
-        <v>0.37369999999999998</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>0.37369999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17">
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.27110000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>390</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="3">
         <v>1.43E-2</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>2.86E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="3">
         <v>1.43E-2</v>
       </c>
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>1.43E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>2.7900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2.931</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="0"/>
-        <v>2.931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="3">
-        <v>12.2097</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>12.2097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2.0329999999999999</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="0"/>
-        <v>2.0329999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>32.768000000000001</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="3">
-        <v>6</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
       <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.9128799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="3">
+        <v>12.2097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5.0499000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2.0329999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1.9172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>32.768000000000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="3">
+        <v>11.029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="3">
+        <v>8.5571000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
         <v>3</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="4"/>
-      <c r="I29" s="4">
-        <f>SUM(I2:I27)</f>
-        <v>38.6965</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="4">
+        <f>SUMPRODUCT(H2:H36,B2:B36)</f>
+        <v>68.627679999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
-    <sortCondition ref="A2:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="I2:I27">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H2:H36">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1510,9 +1770,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" display="https://www.digikey.ca/en/products/detail/osram-opto-semiconductors-inc/LS-R976-NR-1/1227987" xr:uid="{8942F0FB-9A60-41EA-8BA0-EA33C49B86B1}"/>
+    <hyperlink ref="E11" r:id="rId1" display="https://www.digikey.ca/en/products/detail/osram-opto-semiconductors-inc/LS-R976-NR-1/1227987" xr:uid="{8942F0FB-9A60-41EA-8BA0-EA33C49B86B1}"/>
+    <hyperlink ref="E12" r:id="rId2" display="https://www.digikey.ca/en/products/detail/micro-commercial-co/BZT52C5V1T-TP/966530" xr:uid="{1F89AFA6-F465-469F-AACC-975836DE1EBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>